--- a/cancer_treatment_outcomes.xlsx
+++ b/cancer_treatment_outcomes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>outcome</t>
   </si>
@@ -52,6 +52,18 @@
     <t>Symptom management</t>
   </si>
   <si>
+    <t>Palliative care</t>
+  </si>
+  <si>
+    <t>Adjuvant therapy</t>
+  </si>
+  <si>
+    <t>Recurrence</t>
+  </si>
+  <si>
+    <t>Secondary cancer</t>
+  </si>
+  <si>
     <t>The absence of detectable cancer cells in the body following successful treatment, indicating complete remission.</t>
   </si>
   <si>
@@ -80,6 +92,18 @@
   </si>
   <si>
     <t>Efforts to alleviate and control cancer-related symptoms, such as pain, nausea, fatigue, and depression, to improve the patient's comfort and quality of life.</t>
+  </si>
+  <si>
+    <t>Specialized medical care focused on providing relief from the symptoms, pain, and stress of a serious illness like cancer. Palliative care aims to improve the quality of life for both the patient and their family, regardless of the stage of the disease or the need for other treatments.</t>
+  </si>
+  <si>
+    <t>Additional cancer treatment given after the primary treatment, such as surgery or chemotherapy, to kill any remaining cancer cells and reduce the risk of cancer recurrence. Adjuvant therapy aims to improve the long-term outcome and survival rate of cancer patients.</t>
+  </si>
+  <si>
+    <t>The return of cancer after a period of remission or absence, indicating that the disease has come back.</t>
+  </si>
+  <si>
+    <t>The development of a new cancer unrelated to the original cancer diagnosis, either in the same organ or a different part of the body. Secondary cancers may occur as a result of previous cancer treatments, genetic predisposition, or environmental factors.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +582,51 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
